--- a/data/trans_dic/LAWTONB_2R3-Clase-trans_dic.xlsx
+++ b/data/trans_dic/LAWTONB_2R3-Clase-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01538448244807912</v>
+        <v>0.0157020568178509</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02571408139403946</v>
+        <v>0.02531750627486008</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01228566397613684</v>
+        <v>0.0133304214643579</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02466297514864216</v>
+        <v>0.02133326887902891</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.08789601307672538</v>
+        <v>0.07378119848459602</v>
       </c>
       <c r="H5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.03273223425234231</v>
+        <v>0.0346524459584449</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.06146559503184465</v>
+        <v>0.05819645425924869</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.06100612163913458</v>
+        <v>0.05537871617952891</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.04221946573520473</v>
+        <v>0.04436529716479947</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.03932092644862375</v>
+        <v>0.03812750190839306</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.04508432548294473</v>
+        <v>0.04694632190628421</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1356721180305896</v>
+        <v>0.1481960881564239</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2747553044942213</v>
+        <v>0.2859261162890027</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1341462248099025</v>
+        <v>0.1390319738231836</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.08373544294772375</v>
+        <v>0.08374666819327445</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3856817975006129</v>
+        <v>0.39987168899361</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2739155564908178</v>
+        <v>0.2669592222864466</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2922624247324653</v>
+        <v>0.2995304082876956</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1993983855416576</v>
+        <v>0.1909455178652444</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1867020154923678</v>
+        <v>0.1937998699219675</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2092583787754394</v>
+        <v>0.2199457831070096</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.160668203786889</v>
+        <v>0.1572512106907636</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1081836900641123</v>
+        <v>0.1069664812815167</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04821678013270522</v>
+        <v>0.04132677928289812</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0462361108552126</v>
+        <v>0.0521001794353409</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.06798519968095174</v>
+        <v>0.06630351345998534</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06276394168333278</v>
+        <v>0.06441727295422048</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.06018966976472823</v>
+        <v>0.05735750139410262</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.05734176859835436</v>
+        <v>0.05742297651447682</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.06095098271383038</v>
+        <v>0.06408560810595285</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.0817946700852723</v>
+        <v>0.08004586689833722</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.06537184216814934</v>
+        <v>0.05892773331965927</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.07532529045859948</v>
+        <v>0.07749963371678373</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.08487331854602267</v>
+        <v>0.08061433808796759</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.08366765666301383</v>
+        <v>0.08114372933433317</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2715023198567018</v>
+        <v>0.2707550442783851</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2461697154679667</v>
+        <v>0.2534067590431633</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2389121455792514</v>
+        <v>0.2511698848111518</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1693425204788493</v>
+        <v>0.168659702349649</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4894641585848244</v>
+        <v>0.4834806897236717</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4803066548842577</v>
+        <v>0.4725754953574635</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5057558543856652</v>
+        <v>0.4985164335068711</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2377495671513791</v>
+        <v>0.2228874112459697</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2533258801630996</v>
+        <v>0.2466283272526708</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2557452635373892</v>
+        <v>0.2611797940966999</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2532333436503251</v>
+        <v>0.2525816752954441</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.164175481228566</v>
+        <v>0.1636015685385993</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.2030856035264425</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.2937300107990331</v>
+        <v>0.293730010799033</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.1283565332586485</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04897584760387636</v>
+        <v>0.05073484023563273</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.08964437103131015</v>
+        <v>0.08419956736093227</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06236162968835136</v>
+        <v>0.06311701459763229</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.09290925567632549</v>
+        <v>0.08860665505453773</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04793427346823652</v>
+        <v>0.04781775055222755</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1306436509751205</v>
+        <v>0.130741955910246</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.08145274370670412</v>
+        <v>0.08421413182392283</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2027121456850383</v>
+        <v>0.2046539623158669</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.06950130728571963</v>
+        <v>0.07584885772574626</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.118634445523492</v>
+        <v>0.118072250583753</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.09062034405184491</v>
+        <v>0.09395657046727182</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1442271028824025</v>
+        <v>0.1479286195705384</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1875358227614817</v>
+        <v>0.1856473562153982</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2388372794600521</v>
+        <v>0.2418794283168078</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1717409877031472</v>
+        <v>0.1720516003370146</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1990913815518434</v>
+        <v>0.1924043380065078</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4071777241778796</v>
+        <v>0.4030036817705081</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3631450835927265</v>
+        <v>0.3643210460806479</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3639052578521497</v>
+        <v>0.3849830743942587</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.398408714526625</v>
+        <v>0.4036852174969355</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2129985281396569</v>
+        <v>0.2043237105358125</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2527271173776893</v>
+        <v>0.2487611927228696</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1970243729048589</v>
+        <v>0.1977686756232999</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2386624069189993</v>
+        <v>0.2421668091925835</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1148416494572278</v>
+        <v>0.1121983819471116</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.210582645612473</v>
+        <v>0.2148600174443621</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1054528060989171</v>
+        <v>0.1076749491631193</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1745964311317688</v>
+        <v>0.1722060204294811</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.08574776402653059</v>
+        <v>0.0890979473731173</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1456005465510926</v>
+        <v>0.1461828343017509</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1252721271558168</v>
+        <v>0.1255900549510926</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1473158776676849</v>
+        <v>0.1468313558303034</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1186385216994881</v>
+        <v>0.1167293927764446</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2155899921097733</v>
+        <v>0.211613898174447</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.130057583015305</v>
+        <v>0.1247594861509332</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1770687474233509</v>
+        <v>0.1747436200270935</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2001586841262773</v>
+        <v>0.1965252615510422</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3356884024467485</v>
+        <v>0.3406009697435943</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.195758723471236</v>
+        <v>0.2023849585591324</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2587023741203981</v>
+        <v>0.2581036480130249</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2396676556921979</v>
+        <v>0.2471748155118496</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3677089898455402</v>
+        <v>0.3745860446789087</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3096665961252776</v>
+        <v>0.3177651661165036</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2376294530957066</v>
+        <v>0.2446921755102308</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1936263285997468</v>
+        <v>0.1871229667349781</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3220843976912422</v>
+        <v>0.3255891443629524</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.218445147214296</v>
+        <v>0.2116259510957945</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2401116749395474</v>
+        <v>0.2389546745460909</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05417923781129055</v>
+        <v>0.05524194855586045</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1437080132264403</v>
+        <v>0.1360503441778727</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1703833970574379</v>
+        <v>0.1737540715760664</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.154399153498072</v>
+        <v>0.159822789753737</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1767850666288361</v>
+        <v>0.1725432344840947</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2673793201282603</v>
+        <v>0.2698126964488148</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1781556608270931</v>
+        <v>0.1737595314763805</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2974466120211125</v>
+        <v>0.2995770118931826</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1469962739600144</v>
+        <v>0.1414105136009276</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2423562893060624</v>
+        <v>0.2421757955738388</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1917790200808981</v>
+        <v>0.1907103897930722</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2667220529017041</v>
+        <v>0.2649412006066834</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2490362915504094</v>
+        <v>0.2206051738681683</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.307282248021255</v>
+        <v>0.3054838924436219</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2989702585336388</v>
+        <v>0.3130261502204144</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2878840960016907</v>
+        <v>0.2967448835918114</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3627563219457461</v>
+        <v>0.3557244633797609</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4131612971374474</v>
+        <v>0.4172411465473552</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3287281575337113</v>
+        <v>0.3210102431936414</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3897653910259385</v>
+        <v>0.3873907837603499</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2864315131010128</v>
+        <v>0.2724953727029529</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3522370012415929</v>
+        <v>0.3553047853448837</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2905963643487423</v>
+        <v>0.2913089254736176</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3430306976179405</v>
+        <v>0.3400930526622117</v>
       </c>
     </row>
     <row r="19">
@@ -1391,31 +1391,31 @@
       <c r="D20" s="5" t="inlineStr"/>
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="n">
-        <v>0.1753445647139325</v>
+        <v>0.1892256228645394</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1398964681976277</v>
+        <v>0.139411140909152</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1993239924654701</v>
+        <v>0.2008222128194453</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2033671286097612</v>
+        <v>0.2057019447945314</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.3024304036693222</v>
+        <v>0.3031904818432321</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1388606506901334</v>
+        <v>0.1409622424905117</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2001998531931653</v>
+        <v>0.1996748006783622</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2033671286097612</v>
+        <v>0.2057019447945314</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.3082715744946035</v>
+        <v>0.3093597080814158</v>
       </c>
     </row>
     <row r="21">
@@ -1434,28 +1434,28 @@
         <v>1</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2136258934161748</v>
+        <v>0.214358630183127</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2866534155307869</v>
+        <v>0.2919791211349994</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2957866658559637</v>
+        <v>0.3006927629335457</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3793798696064415</v>
+        <v>0.3776214634073859</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2133304461547354</v>
+        <v>0.2196002022224856</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2895051131139282</v>
+        <v>0.2878496380663307</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2957866658559637</v>
+        <v>0.3006927629335457</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.3836052317091103</v>
+        <v>0.3873440305205229</v>
       </c>
     </row>
     <row r="22">
@@ -1479,7 +1479,7 @@
         <v>0.1506539530871139</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1591585300768941</v>
+        <v>0.1591585300768942</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.1859291040717413</v>
@@ -1514,40 +1514,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1030366285599808</v>
+        <v>0.1028902868927129</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1721414536845844</v>
+        <v>0.1703829782223399</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1229027977679228</v>
+        <v>0.1252681364379513</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1352757995638374</v>
+        <v>0.1385371688034276</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1567462371868074</v>
+        <v>0.1563484564930017</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2264615716873829</v>
+        <v>0.2266274670060287</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2037337198385352</v>
+        <v>0.2003605732323451</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2603191527396718</v>
+        <v>0.2630197662247222</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1409996829829996</v>
+        <v>0.1413482062079704</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2152296086376235</v>
+        <v>0.212180155956239</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1765438565527447</v>
+        <v>0.1772157247530606</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2124573067379908</v>
+        <v>0.2125043959501758</v>
       </c>
     </row>
     <row r="24">
@@ -1558,40 +1558,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1613128336271391</v>
+        <v>0.1593062612540513</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2482533458573305</v>
+        <v>0.2481844182131615</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1780213972559931</v>
+        <v>0.1796375517790794</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1812967504419667</v>
+        <v>0.1847511929448603</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.217291941809795</v>
+        <v>0.2182355184579468</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2964149255780742</v>
+        <v>0.2945978226840265</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2710511844972623</v>
+        <v>0.2670312557111494</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3066781777673712</v>
+        <v>0.3090288375069379</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1847449097094044</v>
+        <v>0.1843860267981563</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2649767055685774</v>
+        <v>0.262143517435098</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.220741303837822</v>
+        <v>0.2205174104861325</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2455928166861906</v>
+        <v>0.2452293185627985</v>
       </c>
     </row>
     <row r="25">
@@ -1864,40 +1864,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>920</v>
+        <v>939</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1129</v>
+        <v>1112</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>843</v>
+        <v>915</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2940</v>
+        <v>2543</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2611</v>
+        <v>2192</v>
       </c>
       <c r="H6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1207</v>
+        <v>1278</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>4583</v>
+        <v>4339</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>5460</v>
+        <v>4956</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>2922</v>
+        <v>3070</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>4150</v>
+        <v>4024</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>8737</v>
+        <v>9097</v>
       </c>
     </row>
     <row r="7">
@@ -1908,40 +1908,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>8111</v>
+        <v>8860</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>12067</v>
+        <v>12557</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>9209</v>
+        <v>9544</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>9983</v>
+        <v>9985</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>11458</v>
+        <v>11880</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>6927</v>
+        <v>6751</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>10781</v>
+        <v>11049</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>14867</v>
+        <v>14237</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>16709</v>
+        <v>17344</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>14482</v>
+        <v>15222</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>16956</v>
+        <v>16596</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>20964</v>
+        <v>20728</v>
       </c>
     </row>
     <row r="8">
@@ -2044,40 +2044,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2451</v>
+        <v>2101</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>2803</v>
+        <v>3159</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3627</v>
+        <v>3537</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>6572</v>
+        <v>6745</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>950</v>
+        <v>905</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1072</v>
+        <v>1127</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>4530</v>
+        <v>4433</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>4355</v>
+        <v>3926</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>5991</v>
+        <v>6164</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>6020</v>
+        <v>5718</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>13395</v>
+        <v>12991</v>
       </c>
     </row>
     <row r="11">
@@ -2088,40 +2088,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>13800</v>
+        <v>13762</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>14925</v>
+        <v>15364</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>12745</v>
+        <v>13398</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>17733</v>
+        <v>17661</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>7727</v>
+        <v>7632</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>9079</v>
+        <v>8933</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>8895</v>
+        <v>8768</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>13168</v>
+        <v>12345</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>16876</v>
+        <v>16429</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>20340</v>
+        <v>20772</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>17962</v>
+        <v>17916</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>26284</v>
+        <v>26193</v>
       </c>
     </row>
     <row r="12">
@@ -2224,40 +2224,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>3514</v>
+        <v>3640</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>10637</v>
+        <v>9991</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>7500</v>
+        <v>7591</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>10395</v>
+        <v>9914</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>7135</v>
+        <v>7140</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>3764</v>
+        <v>3891</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>11541</v>
+        <v>11652</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>6674</v>
+        <v>7284</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>20556</v>
+        <v>20458</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>15086</v>
+        <v>15641</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>24348</v>
+        <v>24973</v>
       </c>
     </row>
     <row r="15">
@@ -2268,40 +2268,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>13456</v>
+        <v>13321</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>28339</v>
+        <v>28700</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>20654</v>
+        <v>20691</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>22275</v>
+        <v>21527</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>9884</v>
+        <v>9783</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>19833</v>
+        <v>19897</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>16816</v>
+        <v>17790</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>22683</v>
+        <v>22983</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>20454</v>
+        <v>19621</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>43790</v>
+        <v>43102</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>32799</v>
+        <v>32923</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>40291</v>
+        <v>40882</v>
       </c>
     </row>
     <row r="16">
@@ -2404,40 +2404,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>29867</v>
+        <v>29180</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>48803</v>
+        <v>49794</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>21497</v>
+        <v>21950</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>44928</v>
+        <v>44313</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>7353</v>
+        <v>7640</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>8750</v>
+        <v>8785</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>12408</v>
+        <v>12439</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>19281</v>
+        <v>19217</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>41028</v>
+        <v>40368</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>62920</v>
+        <v>61759</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>39395</v>
+        <v>37790</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>68739</v>
+        <v>67836</v>
       </c>
     </row>
     <row r="19">
@@ -2448,40 +2448,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>52056</v>
+        <v>51111</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>77797</v>
+        <v>78935</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>39907</v>
+        <v>41257</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>66570</v>
+        <v>66416</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>20552</v>
+        <v>21196</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>22097</v>
+        <v>22511</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>30671</v>
+        <v>31473</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>31101</v>
+        <v>32025</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>66961</v>
+        <v>64712</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>94000</v>
+        <v>95023</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>66167</v>
+        <v>64102</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>93212</v>
+        <v>92763</v>
       </c>
     </row>
     <row r="20">
@@ -2584,40 +2584,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>3005</v>
+        <v>3064</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>14758</v>
+        <v>13972</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>24743</v>
+        <v>25233</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>15294</v>
+        <v>15831</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>17016</v>
+        <v>16607</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>50374</v>
+        <v>50833</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>28425</v>
+        <v>27723</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>64925</v>
+        <v>65390</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>22302</v>
+        <v>21454</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>70549</v>
+        <v>70496</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>58449</v>
+        <v>58123</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>84638</v>
+        <v>84073</v>
       </c>
     </row>
     <row r="23">
@@ -2628,40 +2628,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>13813</v>
+        <v>12236</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>31557</v>
+        <v>31372</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>43417</v>
+        <v>45458</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>28516</v>
+        <v>29394</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>34915</v>
+        <v>34238</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>77840</v>
+        <v>78608</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>52449</v>
+        <v>51217</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>85076</v>
+        <v>84557</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>43456</v>
+        <v>41342</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>102535</v>
+        <v>103428</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>88565</v>
+        <v>88783</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>108853</v>
+        <v>107921</v>
       </c>
     </row>
     <row r="24">
@@ -2767,31 +2767,31 @@
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="n">
-        <v>574</v>
+        <v>620</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>59466</v>
+        <v>59259</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>78674</v>
+        <v>79265</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>84008</v>
+        <v>84972</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>103934</v>
+        <v>104196</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>59532</v>
+        <v>60433</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>79418</v>
+        <v>79209</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>84008</v>
+        <v>84972</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>106952</v>
+        <v>107330</v>
       </c>
     </row>
     <row r="27">
@@ -2810,28 +2810,28 @@
         <v>3276</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>90806</v>
+        <v>91117</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>113143</v>
+        <v>115245</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>122184</v>
+        <v>124211</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>130379</v>
+        <v>129775</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>91458</v>
+        <v>94146</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>114844</v>
+        <v>114188</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>122184</v>
+        <v>124211</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>133088</v>
+        <v>134386</v>
       </c>
     </row>
     <row r="28">
@@ -2934,40 +2934,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>51678</v>
+        <v>51605</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>96337</v>
+        <v>95353</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>72676</v>
+        <v>74075</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>94081</v>
+        <v>96350</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>106092</v>
+        <v>105823</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>168036</v>
+        <v>168159</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>157357</v>
+        <v>154751</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>229002</v>
+        <v>231377</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>166153</v>
+        <v>166564</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>280152</v>
+        <v>276183</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>240751</v>
+        <v>241668</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>334657</v>
+        <v>334731</v>
       </c>
     </row>
     <row r="31">
@@ -2978,40 +2978,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>80907</v>
+        <v>79900</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>138932</v>
+        <v>138893</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>105269</v>
+        <v>106225</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>126088</v>
+        <v>128490</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>147072</v>
+        <v>147711</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>219941</v>
+        <v>218593</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>209350</v>
+        <v>206245</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>269784</v>
+        <v>271851</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>217702</v>
+        <v>217279</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>344905</v>
+        <v>341217</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>301023</v>
+        <v>300718</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>386851</v>
+        <v>386279</v>
       </c>
     </row>
     <row r="32">
